--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>767034.9033258966</v>
+        <v>810896.4005981839</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7504065.802171461</v>
+        <v>7523005.197476846</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.451339396032</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>316.9902548637472</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>62.61278031253936</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>73.62552491720905</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>59.84852029105066</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,16 +1142,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>136.2237626411384</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>91.24584268464915</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.227720276594</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>392.8222093848736</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>78.37744390510642</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>230.1678826089934</v>
+        <v>229.755261129862</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>179.0861311466712</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>212.1880754063484</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>32.67077719907196</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>237.9345658720219</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537892</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>206.8981232563554</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.30825486907133</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946036</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>231.1360967980511</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>165.6137642219415</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153395</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3199,10 +3199,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>89.78186289252676</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932883</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292207</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>148.6041873872576</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225779</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,7 +3752,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629678</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3898,10 +3898,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>80.61608517870668</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>67.65667327773716</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3952,13 +3952,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.18442331492852</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4186,13 +4186,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606257</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1966.673407593715</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1528.530934777139</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1092.621149951583</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>658.8464051098783</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304692</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018693</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797695</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756289</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509346</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693183</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2371.712353693183</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2371.712353693183</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>2009.09540362701</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>2008.280353078447</v>
       </c>
       <c r="X2" t="n">
-        <v>694.5417389180305</v>
+        <v>1993.178293698162</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.255615217684</v>
+        <v>1988.932574038219</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414798</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246753</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.611864851629</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677906</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397445</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018693</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064453</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.43192898542</v>
       </c>
       <c r="L3" t="n">
-        <v>857.0776321906106</v>
+        <v>1007.43192898542</v>
       </c>
       <c r="M3" t="n">
-        <v>857.0776321906106</v>
+        <v>1007.43192898542</v>
       </c>
       <c r="N3" t="n">
-        <v>857.0776321906106</v>
+        <v>1007.43192898542</v>
       </c>
       <c r="O3" t="n">
-        <v>857.0776321906106</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.712964807981</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031422</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420221</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212429</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>955.6037336452933</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>789.7257408468161</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>619.9677370975533</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>443.2606830593094</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851371</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755116</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018693</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148768</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>410.4454242860124</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>828.6553060539735</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1288.139173234887</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674672</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645014</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509346</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214718</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512715</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2028.82559109117</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1750.392590344275</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1463.437082214705</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1191.410677800997</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>1191.410677800997</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>1191.410677800997</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>2174.854186692635</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>2100.484969604545</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.0939688115344</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C8" t="n">
-        <v>927.6409180124933</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D8" t="n">
-        <v>895.7715372273419</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E8" t="n">
-        <v>866.0371964260412</v>
+        <v>881.9457520785825</v>
       </c>
       <c r="F8" t="n">
-        <v>438.1697668352489</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105257</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105257</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105257</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105257</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1382.132025509621</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626542</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925637</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996789</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296442</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>895.5337281072755</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>895.5337281072755</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>729.6557353087982</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>559.8977315595355</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>383.1906775212917</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>217.5994025471194</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851274</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255688</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>910.0345185255688</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1329.70376775135</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178742</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1560.163772178742</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1560.163772178742</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1314.772017512154</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1087.352346826263</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847296</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939374</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172013</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>3140.9663167738</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>3140.9663167738</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4170.46278304646</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3765.607328457493</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3346.464865036804</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987274</v>
+        <v>1078.256218512436</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819523</v>
+        <v>905.6945069956607</v>
       </c>
       <c r="D13" t="n">
-        <v>467.790109783475</v>
+        <v>739.8165141971834</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342122</v>
+        <v>570.0585104479208</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959685</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5227,7 +5227,7 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
         <v>2029.841770713472</v>
@@ -5236,13 +5236,13 @@
         <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1497.494507917315</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177145</v>
+        <v>1270.074837231423</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5279,16 +5279,16 @@
         <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1607.050630386892</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M14" t="n">
-        <v>1607.050630386892</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2492.071939528658</v>
       </c>
       <c r="O14" t="n">
         <v>3292.836108510712</v>
@@ -5318,10 +5318,10 @@
         <v>3590.036899590674</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874518</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987281</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>633.668102581953</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834758</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E16" t="n">
-        <v>298.032106034213</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959693</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5467,19 +5467,19 @@
         <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177151</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.30874198473</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168154</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.256484342598</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1028.481739500893</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6143099101009</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1356.079523257016</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1356.079523257016</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>1356.079523257016</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693463</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263769</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097165</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928798</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245815</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.892354179641</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590674</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987274</v>
+        <v>844.3248695203471</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819523</v>
+        <v>671.763158003572</v>
       </c>
       <c r="D19" t="n">
-        <v>467.790109783475</v>
+        <v>671.763158003572</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342123</v>
+        <v>502.0051542543092</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959685</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5701,22 +5701,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2067.936826135091</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1780.981318005522</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1508.954913591813</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1263.563158925226</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>1036.143488239334</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146351</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397514</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1607.050630386892</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>1607.050630386892</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5890,25 +5890,25 @@
         <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935314</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583914</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177145</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6412,22 +6412,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1801.89582945662</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1090.187678435287</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>917.6259669185122</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>751.7479741200349</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V31" t="n">
-        <v>2026.844126920462</v>
+        <v>2005.426305625834</v>
       </c>
       <c r="W31" t="n">
-        <v>1754.817722506753</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X31" t="n">
-        <v>1509.425967840166</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1282.006297154274</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1017.756527079656</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>845.1948155628808</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>679.3168227644035</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>509.5588190151407</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>332.8517649768968</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798643</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6947,31 +6947,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -7078,7 +7078,7 @@
         <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7117,10 +7117,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
         <v>2454.80183470935</v>
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,22 +7181,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477115</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309365</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324589</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962456</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419178</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066699</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.187678435287</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>911.2193705853251</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674087</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>673.121292818146</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
         <v>496.4142387799021</v>
@@ -7600,19 +7600,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2026.844126920462</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1754.817722506753</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="X43" t="n">
-        <v>1509.425967840166</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.006297154274</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
         <v>793.2056155771595</v>
@@ -7646,52 +7646,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1036.216302815309</v>
+        <v>1181.319000882662</v>
       </c>
       <c r="C46" t="n">
         <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F46" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7807,7 +7807,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7831,25 +7831,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T46" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.872751300483</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W46" t="n">
-        <v>1700.846346886775</v>
+        <v>1654.130426235141</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.454592220187</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.034921534296</v>
+        <v>1181.319000882662</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804404</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="L3" t="n">
-        <v>52.98895607821112</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854612</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>211.380386143577</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>1.426309209010924</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662717</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,25 +8608,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>344.1416467777317</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,19 +8693,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>706.6317115441711</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,19 +8927,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>712.7331429833466</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>808.8526959414685</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,16 +9164,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>832.4129890131139</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9401,7 +9401,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>712.7331429833475</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10361,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>866.2895820207518</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>11.38105307846951</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>96.56253959275492</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>184.783156177489</v>
+        <v>185.1957776566204</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>90.22000922290013</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>185.1957776566204</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>185.1957776566198</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>37.71410486740385</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>49.73195639979787</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>52.94985625022269</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.446659489828632</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.4236523045821</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>74.15349933190384</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>160.7958207444072</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>41.29624514453962</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>90.22000922290063</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>96.56253959275537</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>197.1718905122113</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>648369.5406572835</v>
+        <v>654201.099748296</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>648369.5406572835</v>
+        <v>655852.441891884</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>649457.2235264039</v>
+        <v>655852.441891884</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632674.6861751585</v>
+        <v>632674.6861751584</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632674.6861751585</v>
+        <v>632674.6861751586</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632674.6861751585</v>
+        <v>632674.6861751584</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659374.2809005191</v>
+        <v>659374.2809005192</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659374.2809005191</v>
+        <v>659374.2809005192</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659374.2809005191</v>
+        <v>659374.2809005192</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26320,13 @@
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>290676.2413337139</v>
+        <v>290676.2413337138</v>
       </c>
       <c r="F2" t="n">
         <v>290676.2413337139</v>
       </c>
       <c r="G2" t="n">
-        <v>290676.2413337139</v>
+        <v>290676.241333714</v>
       </c>
       <c r="H2" t="n">
         <v>290676.2413337139</v>
@@ -26344,16 +26344,16 @@
         <v>302943.1108789775</v>
       </c>
       <c r="M2" t="n">
-        <v>302943.1108789777</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
+        <v>302943.1108789775</v>
+      </c>
+      <c r="O2" t="n">
         <v>302943.1108789776</v>
       </c>
-      <c r="O2" t="n">
-        <v>302943.1108789777</v>
-      </c>
       <c r="P2" t="n">
-        <v>302943.1108789777</v>
+        <v>302943.1108789776</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039037</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390594</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856139</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784458</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485733</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.177844937</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960744</v>
+        <v>39457.78817960742</v>
       </c>
       <c r="F4" t="n">
         <v>39457.78817960744</v>
@@ -26448,16 +26448,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.9519299127</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
+        <v>41122.95192991271</v>
+      </c>
+      <c r="O4" t="n">
+        <v>41122.95192991276</v>
+      </c>
+      <c r="P4" t="n">
         <v>41122.95192991272</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41122.95192991271</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814207</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80895.91291576071</v>
+        <v>-118393.0666736343</v>
       </c>
       <c r="C6" t="n">
-        <v>61295.38774394911</v>
+        <v>77347.89276241667</v>
       </c>
       <c r="D6" t="n">
-        <v>55167.45347157557</v>
+        <v>94688.43713632254</v>
       </c>
       <c r="E6" t="n">
-        <v>-46100.18287556844</v>
+        <v>15887.47711154774</v>
       </c>
       <c r="F6" t="n">
-        <v>177699.1108764589</v>
+        <v>177622.5523216621</v>
       </c>
       <c r="G6" t="n">
-        <v>177699.1108764589</v>
+        <v>177622.5523216622</v>
       </c>
       <c r="H6" t="n">
-        <v>177699.110876459</v>
+        <v>177622.5523216622</v>
       </c>
       <c r="I6" t="n">
-        <v>165737.2047104328</v>
+        <v>165713.98037105</v>
       </c>
       <c r="J6" t="n">
-        <v>73087.45499828205</v>
+        <v>23470.86651827574</v>
       </c>
       <c r="K6" t="n">
-        <v>184101.9203432723</v>
+        <v>170264.6874360451</v>
       </c>
       <c r="L6" t="n">
-        <v>175154.3092547624</v>
+        <v>184078.6960038896</v>
       </c>
       <c r="M6" t="n">
-        <v>-2689.066267195216</v>
+        <v>49088.75139088628</v>
       </c>
       <c r="N6" t="n">
-        <v>184101.9203432724</v>
+        <v>184078.6960038896</v>
       </c>
       <c r="O6" t="n">
-        <v>184101.9203432725</v>
+        <v>184078.6960038897</v>
       </c>
       <c r="P6" t="n">
-        <v>184101.9203432725</v>
+        <v>184078.6960038898</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052041</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052041</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052041</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.5852353840268</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>106.5985004311371</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>127.2876522192579</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>330.577737546134</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27780,19 +27780,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>373.9125277973603</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,16 +27862,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>287.364992653746</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>47.25730988188008</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804404</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773365</v>
       </c>
       <c r="L3" t="n">
-        <v>52.98895607821112</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34790,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854612</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.4542274390807</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>211.380386143577</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>1.426309209010924</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662717</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>344.1416467777317</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,25 +35413,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>706.6317115441711</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35647,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>712.7331429833466</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>808.8526959414685</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>832.4129890131139</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>712.7331429833475</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37078,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>866.2895820207518</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,10 +37324,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
